--- a/Code/Results/Cases/Case_0_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9901520682059344</v>
+        <v>1.03003059421967</v>
       </c>
       <c r="D2">
-        <v>0.9986316712913342</v>
+        <v>1.032675008380089</v>
       </c>
       <c r="E2">
-        <v>0.997739695933464</v>
+        <v>1.029764427772845</v>
       </c>
       <c r="F2">
-        <v>0.9995904195220644</v>
+        <v>1.039563603515629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043443007204644</v>
+        <v>1.034293656520389</v>
       </c>
       <c r="J2">
-        <v>1.012631372597957</v>
+        <v>1.035174091447719</v>
       </c>
       <c r="K2">
-        <v>1.010110102080222</v>
+        <v>1.035479555945998</v>
       </c>
       <c r="L2">
-        <v>1.009230610460341</v>
+        <v>1.032577392075639</v>
       </c>
       <c r="M2">
-        <v>1.011055463401868</v>
+        <v>1.042348434739381</v>
       </c>
       <c r="N2">
-        <v>1.007638348567103</v>
+        <v>1.01563566308488</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9966786099283003</v>
+        <v>1.031326642095284</v>
       </c>
       <c r="D3">
-        <v>1.004485012355375</v>
+        <v>1.033884536087532</v>
       </c>
       <c r="E3">
-        <v>1.003093678248213</v>
+        <v>1.030874938474305</v>
       </c>
       <c r="F3">
-        <v>1.006621547129348</v>
+        <v>1.041017841544534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045584295523738</v>
+        <v>1.034603817565304</v>
       </c>
       <c r="J3">
-        <v>1.017260230735533</v>
+        <v>1.036109651998183</v>
       </c>
       <c r="K3">
-        <v>1.015060826463047</v>
+        <v>1.036496834073602</v>
       </c>
       <c r="L3">
-        <v>1.013687127334747</v>
+        <v>1.033495303450516</v>
       </c>
       <c r="M3">
-        <v>1.017170399333393</v>
+        <v>1.04361122057631</v>
       </c>
       <c r="N3">
-        <v>1.009232246352525</v>
+        <v>1.015952517801043</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000781682671759</v>
+        <v>1.032164146635687</v>
       </c>
       <c r="D4">
-        <v>1.008169919193965</v>
+        <v>1.034666373499147</v>
       </c>
       <c r="E4">
-        <v>1.006466106249099</v>
+        <v>1.031592865498182</v>
       </c>
       <c r="F4">
-        <v>1.011043569648038</v>
+        <v>1.041957721137565</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046913304666108</v>
+        <v>1.034802135815353</v>
       </c>
       <c r="J4">
-        <v>1.02016541404081</v>
+        <v>1.036713456052028</v>
       </c>
       <c r="K4">
-        <v>1.018170730477585</v>
+        <v>1.037153715486788</v>
       </c>
       <c r="L4">
-        <v>1.016487112507121</v>
+        <v>1.034088026717336</v>
       </c>
       <c r="M4">
-        <v>1.021010510976023</v>
+        <v>1.044426712150752</v>
       </c>
       <c r="N4">
-        <v>1.010231903737909</v>
+        <v>1.016156833291937</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002479346005345</v>
+        <v>1.03251596858578</v>
       </c>
       <c r="D5">
-        <v>1.009695715362736</v>
+        <v>1.034994867985742</v>
       </c>
       <c r="E5">
-        <v>1.007862946376687</v>
+        <v>1.031894529888683</v>
       </c>
       <c r="F5">
-        <v>1.01287363067858</v>
+        <v>1.042352586218163</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047459007838177</v>
+        <v>1.034884940984408</v>
       </c>
       <c r="J5">
-        <v>1.021366225806797</v>
+        <v>1.036966923284954</v>
       </c>
       <c r="K5">
-        <v>1.019456812058326</v>
+        <v>1.037429544624646</v>
       </c>
       <c r="L5">
-        <v>1.017645146560498</v>
+        <v>1.034336916601135</v>
       </c>
       <c r="M5">
-        <v>1.02259835847243</v>
+        <v>1.044769162787273</v>
       </c>
       <c r="N5">
-        <v>1.010644912641043</v>
+        <v>1.016242558314284</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002762832709555</v>
+        <v>1.032575025629164</v>
       </c>
       <c r="D6">
-        <v>1.009950568504014</v>
+        <v>1.035050012615892</v>
       </c>
       <c r="E6">
-        <v>1.008096284776048</v>
+        <v>1.031945171830716</v>
       </c>
       <c r="F6">
-        <v>1.013179251776134</v>
+        <v>1.042418870693522</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047549885275458</v>
+        <v>1.034898811072642</v>
       </c>
       <c r="J6">
-        <v>1.021566671818029</v>
+        <v>1.037009459820397</v>
       </c>
       <c r="K6">
-        <v>1.019671530157369</v>
+        <v>1.037475838652258</v>
       </c>
       <c r="L6">
-        <v>1.017838493102594</v>
+        <v>1.034378689323229</v>
       </c>
       <c r="M6">
-        <v>1.022863447511795</v>
+        <v>1.044826639489669</v>
       </c>
       <c r="N6">
-        <v>1.010713843148923</v>
+        <v>1.016256942027158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000804472220419</v>
+        <v>1.032168848733476</v>
       </c>
       <c r="D7">
-        <v>1.00819039711288</v>
+        <v>1.034670763600712</v>
       </c>
       <c r="E7">
-        <v>1.006484851754305</v>
+        <v>1.031596896946696</v>
       </c>
       <c r="F7">
-        <v>1.011068134787334</v>
+        <v>1.041962998360285</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046920646842706</v>
+        <v>1.034803244491821</v>
       </c>
       <c r="J7">
-        <v>1.020181538715224</v>
+        <v>1.036716844351633</v>
       </c>
       <c r="K7">
-        <v>1.018187997584972</v>
+        <v>1.037157402397743</v>
       </c>
       <c r="L7">
-        <v>1.016502659977621</v>
+        <v>1.034091353536144</v>
       </c>
       <c r="M7">
-        <v>1.021031830375194</v>
+        <v>1.044431289488224</v>
       </c>
       <c r="N7">
-        <v>1.01023745042557</v>
+        <v>1.016157979417611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.992383518961549</v>
+        <v>1.030468835277776</v>
       </c>
       <c r="D8">
-        <v>1.000631845229695</v>
+        <v>1.033083943295358</v>
       </c>
       <c r="E8">
-        <v>0.9995688200988916</v>
+        <v>1.030139865929588</v>
       </c>
       <c r="F8">
-        <v>1.0019940358968</v>
+        <v>1.040055303058524</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044178703744802</v>
+        <v>1.034398969709173</v>
       </c>
       <c r="J8">
-        <v>1.01421498995783</v>
+        <v>1.035490594589919</v>
       </c>
       <c r="K8">
-        <v>1.011803264567165</v>
+        <v>1.035823634478368</v>
       </c>
       <c r="L8">
-        <v>1.010754635159409</v>
+        <v>1.032887860173135</v>
       </c>
       <c r="M8">
-        <v>1.013147064279033</v>
+        <v>1.04277553641307</v>
       </c>
       <c r="N8">
-        <v>1.008183792274425</v>
+        <v>1.015742893337774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9765528245398505</v>
+        <v>1.027464379706436</v>
       </c>
       <c r="D9">
-        <v>0.9864666139712673</v>
+        <v>1.030281420023796</v>
       </c>
       <c r="E9">
-        <v>0.9866240802316261</v>
+        <v>1.027567298998065</v>
       </c>
       <c r="F9">
-        <v>0.9849486328325798</v>
+        <v>1.036684960641742</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038888001853439</v>
+        <v>1.033668330458403</v>
       </c>
       <c r="J9">
-        <v>1.002961627078404</v>
+        <v>1.033317657304211</v>
       </c>
       <c r="K9">
-        <v>0.9997831446465063</v>
+        <v>1.033462766091848</v>
       </c>
       <c r="L9">
-        <v>0.9999379654926992</v>
+        <v>1.030757632966479</v>
       </c>
       <c r="M9">
-        <v>0.9982907213671708</v>
+        <v>1.039845305607587</v>
       </c>
       <c r="N9">
-        <v>1.004305302806117</v>
+        <v>1.015005973403225</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9652189004474616</v>
+        <v>1.02545520364613</v>
       </c>
       <c r="D10">
-        <v>0.9763603165638925</v>
+        <v>1.028408585734066</v>
       </c>
       <c r="E10">
-        <v>0.977401465442548</v>
+        <v>1.025848643487955</v>
       </c>
       <c r="F10">
-        <v>0.9727525914340288</v>
+        <v>1.03443184996885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035011745659487</v>
+        <v>1.033168887651878</v>
       </c>
       <c r="J10">
-        <v>0.9948838253924892</v>
+        <v>1.031860688537889</v>
       </c>
       <c r="K10">
-        <v>0.9911699259641358</v>
+        <v>1.031881528624856</v>
       </c>
       <c r="L10">
-        <v>0.9921910935423002</v>
+        <v>1.029330908110703</v>
       </c>
       <c r="M10">
-        <v>0.9876318725767996</v>
+        <v>1.037883060730661</v>
       </c>
       <c r="N10">
-        <v>1.001518741227478</v>
+        <v>1.01451094555118</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9600968208070274</v>
+        <v>1.024583673381568</v>
       </c>
       <c r="D11">
-        <v>0.9718027063744951</v>
+        <v>1.027596513906477</v>
       </c>
       <c r="E11">
-        <v>0.9732458857547848</v>
+        <v>1.02510354768312</v>
       </c>
       <c r="F11">
-        <v>0.9672423040118264</v>
+        <v>1.033454677431676</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033240007573004</v>
+        <v>1.032949676566508</v>
       </c>
       <c r="J11">
-        <v>0.9912292834134988</v>
+        <v>1.031227782933217</v>
       </c>
       <c r="K11">
-        <v>0.9872767206991209</v>
+        <v>1.031195052730603</v>
       </c>
       <c r="L11">
-        <v>0.9886906195588968</v>
+        <v>1.028711521884123</v>
       </c>
       <c r="M11">
-        <v>0.9828096018176412</v>
+        <v>1.037031242640589</v>
       </c>
       <c r="N11">
-        <v>1.000257681840425</v>
+        <v>1.014295690420007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9581591749196507</v>
+        <v>1.024259710776896</v>
       </c>
       <c r="D12">
-        <v>0.9700801728762788</v>
+        <v>1.0272947012557</v>
       </c>
       <c r="E12">
-        <v>0.9716758699731098</v>
+        <v>1.024826645949892</v>
       </c>
       <c r="F12">
-        <v>0.9651579731870233</v>
+        <v>1.033091470866632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032566868340927</v>
+        <v>1.032867807140995</v>
       </c>
       <c r="J12">
-        <v>0.9898462924963377</v>
+        <v>1.030992385042313</v>
       </c>
       <c r="K12">
-        <v>0.9858039504134369</v>
+        <v>1.030939792147723</v>
       </c>
       <c r="L12">
-        <v>0.9873666059097631</v>
+        <v>1.028481209636478</v>
       </c>
       <c r="M12">
-        <v>0.9809845838226481</v>
+        <v>1.036714510094889</v>
       </c>
       <c r="N12">
-        <v>0.9997804241444452</v>
+        <v>1.014215597925435</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.958576443709611</v>
+        <v>1.024329212690006</v>
       </c>
       <c r="D13">
-        <v>0.9704510442402643</v>
+        <v>1.027359448994467</v>
       </c>
       <c r="E13">
-        <v>0.97201387685495</v>
+        <v>1.024886048706641</v>
       </c>
       <c r="F13">
-        <v>0.9656068233066952</v>
+        <v>1.033169390929473</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032711957175987</v>
+        <v>1.032885388558835</v>
       </c>
       <c r="J13">
-        <v>0.9901441384026849</v>
+        <v>1.031042892713883</v>
       </c>
       <c r="K13">
-        <v>0.9861211072009677</v>
+        <v>1.030994558821765</v>
       </c>
       <c r="L13">
-        <v>0.9876517195326435</v>
+        <v>1.028530623521708</v>
       </c>
       <c r="M13">
-        <v>0.9813776338725106</v>
+        <v>1.036782465301462</v>
       </c>
       <c r="N13">
-        <v>0.9998832092613628</v>
+        <v>1.014232784263603</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9599373877761906</v>
+        <v>1.024556899407813</v>
       </c>
       <c r="D14">
-        <v>0.9716609404271345</v>
+        <v>1.02757156953377</v>
       </c>
       <c r="E14">
-        <v>0.9731166602832079</v>
+        <v>1.025080661776835</v>
       </c>
       <c r="F14">
-        <v>0.9670707982544497</v>
+        <v>1.033424659622514</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03318467876049</v>
+        <v>1.032942918294708</v>
       </c>
       <c r="J14">
-        <v>0.9911154980488212</v>
+        <v>1.031208331186986</v>
       </c>
       <c r="K14">
-        <v>0.9871555378237792</v>
+        <v>1.031173958400915</v>
       </c>
       <c r="L14">
-        <v>0.9885816727656137</v>
+        <v>1.02869248921251</v>
       </c>
       <c r="M14">
-        <v>0.9826594519664192</v>
+        <v>1.037005068183097</v>
       </c>
       <c r="N14">
-        <v>1.000218416100306</v>
+        <v>1.014289072754416</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.960771170602281</v>
+        <v>1.024697153077597</v>
       </c>
       <c r="D15">
-        <v>0.9724023950623369</v>
+        <v>1.027702240939819</v>
       </c>
       <c r="E15">
-        <v>0.9737925500857613</v>
+        <v>1.025200550651068</v>
       </c>
       <c r="F15">
-        <v>0.9679677242184034</v>
+        <v>1.033581906930013</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033473912991836</v>
+        <v>1.032978305292498</v>
       </c>
       <c r="J15">
-        <v>0.9917105385461321</v>
+        <v>1.031310222287539</v>
       </c>
       <c r="K15">
-        <v>0.9877892854850673</v>
+        <v>1.031284456124412</v>
       </c>
       <c r="L15">
-        <v>0.9891514374425389</v>
+        <v>1.028792187486487</v>
       </c>
       <c r="M15">
-        <v>0.9834446547933647</v>
+        <v>1.037142177341996</v>
       </c>
       <c r="N15">
-        <v>1.000423755009868</v>
+        <v>1.014323735740431</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9655540818780838</v>
+        <v>1.02551301124328</v>
       </c>
       <c r="D16">
-        <v>0.9766587704115661</v>
+        <v>1.028462456246803</v>
       </c>
       <c r="E16">
-        <v>0.9776736688720519</v>
+        <v>1.02589807362034</v>
       </c>
       <c r="F16">
-        <v>0.9731132024995987</v>
+        <v>1.034496668238739</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035127280126011</v>
+        <v>1.033183373699838</v>
       </c>
       <c r="J16">
-        <v>0.9951228985418479</v>
+        <v>1.031902649335702</v>
       </c>
       <c r="K16">
-        <v>0.9914246860324696</v>
+        <v>1.031927049723059</v>
       </c>
       <c r="L16">
-        <v>0.9924201794925563</v>
+        <v>1.029371980622203</v>
       </c>
       <c r="M16">
-        <v>0.9879473261624074</v>
+        <v>1.03793954722586</v>
       </c>
       <c r="N16">
-        <v>1.001601231440394</v>
+        <v>1.014525212158393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9684949548708031</v>
+        <v>1.026024360315759</v>
       </c>
       <c r="D17">
-        <v>0.9792785026938183</v>
+        <v>1.028939015667445</v>
       </c>
       <c r="E17">
-        <v>0.9800633858905241</v>
+        <v>1.02633536597198</v>
       </c>
       <c r="F17">
-        <v>0.9762773489280929</v>
+        <v>1.035070051274831</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036138733064384</v>
+        <v>1.033311217020435</v>
       </c>
       <c r="J17">
-        <v>0.997220080594972</v>
+        <v>1.032273717401943</v>
       </c>
       <c r="K17">
-        <v>0.9936598788220807</v>
+        <v>1.032329649761716</v>
       </c>
       <c r="L17">
-        <v>0.9944302454989592</v>
+        <v>1.029735237386167</v>
       </c>
       <c r="M17">
-        <v>0.9907145127153395</v>
+        <v>1.038439135688304</v>
       </c>
       <c r="N17">
-        <v>1.002324807534496</v>
+        <v>1.014651349893792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9701898392006144</v>
+        <v>1.026322473003008</v>
       </c>
       <c r="D18">
-        <v>0.9807892082573751</v>
+        <v>1.029216876737816</v>
       </c>
       <c r="E18">
-        <v>0.9814417781844021</v>
+        <v>1.026590343982846</v>
       </c>
       <c r="F18">
-        <v>0.9781010451671099</v>
+        <v>1.035404345764915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036719770027325</v>
+        <v>1.033385501435467</v>
       </c>
       <c r="J18">
-        <v>0.9984283476111488</v>
+        <v>1.032489959664549</v>
       </c>
       <c r="K18">
-        <v>0.9949479943583844</v>
+        <v>1.03256430715154</v>
       </c>
       <c r="L18">
-        <v>0.9955887289759391</v>
+        <v>1.029946964295202</v>
       </c>
       <c r="M18">
-        <v>0.9923088018351295</v>
+        <v>1.038730329844016</v>
       </c>
       <c r="N18">
-        <v>1.002741651331169</v>
+        <v>1.014724836683386</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9707643591038445</v>
+        <v>1.026424096690637</v>
       </c>
       <c r="D19">
-        <v>0.9813014459255648</v>
+        <v>1.029311602000102</v>
       </c>
       <c r="E19">
-        <v>0.9819092066330972</v>
+        <v>1.026677270214442</v>
       </c>
       <c r="F19">
-        <v>0.9787192527843462</v>
+        <v>1.035518306283044</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0369164035854</v>
+        <v>1.03341078230497</v>
       </c>
       <c r="J19">
-        <v>0.9988378500942408</v>
+        <v>1.032563659648434</v>
       </c>
       <c r="K19">
-        <v>0.9953846156981341</v>
+        <v>1.032644290135201</v>
       </c>
       <c r="L19">
-        <v>0.9959814275144071</v>
+        <v>1.030019131579274</v>
       </c>
       <c r="M19">
-        <v>0.9928491383545186</v>
+        <v>1.038829584534573</v>
       </c>
       <c r="N19">
-        <v>1.002882920129339</v>
+        <v>1.014749879022547</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.968181564670864</v>
+        <v>1.025969512808981</v>
       </c>
       <c r="D20">
-        <v>0.9789992399507353</v>
+        <v>1.028887896553569</v>
       </c>
       <c r="E20">
-        <v>0.9798086083162034</v>
+        <v>1.026288457691102</v>
       </c>
       <c r="F20">
-        <v>0.9759401521327656</v>
+        <v>1.035008548280702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036031144027145</v>
+        <v>1.033297530074238</v>
       </c>
       <c r="J20">
-        <v>0.9969966361669046</v>
+        <v>1.032233925556487</v>
       </c>
       <c r="K20">
-        <v>0.9934216951768998</v>
+        <v>1.032286472450143</v>
       </c>
       <c r="L20">
-        <v>0.9942160403897422</v>
+        <v>1.029696279392238</v>
       </c>
       <c r="M20">
-        <v>0.9904196827052155</v>
+        <v>1.038385556064954</v>
       </c>
       <c r="N20">
-        <v>1.002247717672389</v>
+        <v>1.014637825539053</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9595376167448888</v>
+        <v>1.024489857943978</v>
       </c>
       <c r="D21">
-        <v>0.9713054946153504</v>
+        <v>1.027509110133653</v>
       </c>
       <c r="E21">
-        <v>0.9727926662061313</v>
+        <v>1.025023356972683</v>
       </c>
       <c r="F21">
-        <v>0.9666407580216229</v>
+        <v>1.033349496066447</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033045897940459</v>
+        <v>1.032925989509391</v>
       </c>
       <c r="J21">
-        <v>0.9908301786850259</v>
+        <v>1.031159622228863</v>
       </c>
       <c r="K21">
-        <v>0.9868516776970159</v>
+        <v>1.031121137261103</v>
       </c>
       <c r="L21">
-        <v>0.9883084971254679</v>
+        <v>1.028644830582059</v>
       </c>
       <c r="M21">
-        <v>0.9822829454304812</v>
+        <v>1.036939526322788</v>
       </c>
       <c r="N21">
-        <v>1.000119955899876</v>
+        <v>1.014272500992796</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9538981890414832</v>
+        <v>1.023558163570405</v>
       </c>
       <c r="D22">
-        <v>0.9662952892217254</v>
+        <v>1.026641209154701</v>
       </c>
       <c r="E22">
-        <v>0.9682272154456671</v>
+        <v>1.024227126194205</v>
       </c>
       <c r="F22">
-        <v>0.9605746854045862</v>
+        <v>1.032304985371216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031081357347051</v>
+        <v>1.032689813688605</v>
       </c>
       <c r="J22">
-        <v>0.9868042056248824</v>
+        <v>1.030482377892504</v>
       </c>
       <c r="K22">
-        <v>0.9825653764258752</v>
+        <v>1.030386864027691</v>
       </c>
       <c r="L22">
-        <v>0.9844555138785236</v>
+        <v>1.027982325904728</v>
       </c>
       <c r="M22">
-        <v>0.9769698240184937</v>
+        <v>1.036028441386307</v>
       </c>
       <c r="N22">
-        <v>0.9987305895033305</v>
+        <v>1.014042012805997</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9569082050290647</v>
+        <v>1.024052204729324</v>
       </c>
       <c r="D23">
-        <v>0.9689685437796273</v>
+        <v>1.027101396462662</v>
       </c>
       <c r="E23">
-        <v>0.9706628343835644</v>
+        <v>1.02464930140389</v>
       </c>
       <c r="F23">
-        <v>0.9638123442968634</v>
+        <v>1.032858835082407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03213147489539</v>
+        <v>1.032815259440758</v>
       </c>
       <c r="J23">
-        <v>0.9889532857734553</v>
+        <v>1.030841568613719</v>
       </c>
       <c r="K23">
-        <v>0.9848531245484633</v>
+        <v>1.030776267341133</v>
       </c>
       <c r="L23">
-        <v>0.9865118736774591</v>
+        <v>1.028333667667285</v>
       </c>
       <c r="M23">
-        <v>0.9798061064402777</v>
+        <v>1.036511607647778</v>
       </c>
       <c r="N23">
-        <v>0.9994722487683069</v>
+        <v>1.014164274639653</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9683232352807329</v>
+        <v>1.025994296495141</v>
       </c>
       <c r="D24">
-        <v>0.9791254801743071</v>
+        <v>1.02891099541413</v>
       </c>
       <c r="E24">
-        <v>0.979923779046861</v>
+        <v>1.026309653793401</v>
       </c>
       <c r="F24">
-        <v>0.9760925842873537</v>
+        <v>1.035036339299814</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036079786391523</v>
+        <v>1.033303715494837</v>
       </c>
       <c r="J24">
-        <v>0.997097647244061</v>
+        <v>1.032251906382359</v>
       </c>
       <c r="K24">
-        <v>0.9935293682753537</v>
+        <v>1.032305982951166</v>
       </c>
       <c r="L24">
-        <v>0.9943128734438558</v>
+        <v>1.029713883310316</v>
       </c>
       <c r="M24">
-        <v>0.990552964570673</v>
+        <v>1.038409767030688</v>
       </c>
       <c r="N24">
-        <v>1.002282567301522</v>
+        <v>1.014643936882239</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9807739063080166</v>
+        <v>1.028242176690631</v>
       </c>
       <c r="D25">
-        <v>0.9902380051793894</v>
+        <v>1.031006713764638</v>
       </c>
       <c r="E25">
-        <v>0.9900684565527145</v>
+        <v>1.028232991831201</v>
       </c>
       <c r="F25">
-        <v>0.9894922063888825</v>
+        <v>1.037557345448684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040314081987655</v>
+        <v>1.033859389343018</v>
       </c>
       <c r="J25">
-        <v>1.005966092851942</v>
+        <v>1.033880870362205</v>
       </c>
       <c r="K25">
-        <v>1.00298977770078</v>
+        <v>1.034074383574075</v>
       </c>
       <c r="L25">
-        <v>1.00282292860305</v>
+        <v>1.031309493520469</v>
       </c>
       <c r="M25">
-        <v>1.002255862274913</v>
+        <v>1.040604362117562</v>
       </c>
       <c r="N25">
-        <v>1.005341299156486</v>
+        <v>1.015197141035617</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03003059421967</v>
+        <v>0.9901520682059342</v>
       </c>
       <c r="D2">
-        <v>1.032675008380089</v>
+        <v>0.9986316712913339</v>
       </c>
       <c r="E2">
-        <v>1.029764427772845</v>
+        <v>0.9977396959334639</v>
       </c>
       <c r="F2">
-        <v>1.039563603515629</v>
+        <v>0.9995904195220641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034293656520389</v>
+        <v>1.043443007204644</v>
       </c>
       <c r="J2">
-        <v>1.035174091447719</v>
+        <v>1.012631372597957</v>
       </c>
       <c r="K2">
-        <v>1.035479555945998</v>
+        <v>1.010110102080222</v>
       </c>
       <c r="L2">
-        <v>1.032577392075639</v>
+        <v>1.009230610460341</v>
       </c>
       <c r="M2">
-        <v>1.042348434739381</v>
+        <v>1.011055463401867</v>
       </c>
       <c r="N2">
-        <v>1.01563566308488</v>
+        <v>1.007638348567103</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031326642095284</v>
+        <v>0.9966786099282996</v>
       </c>
       <c r="D3">
-        <v>1.033884536087532</v>
+        <v>1.004485012355374</v>
       </c>
       <c r="E3">
-        <v>1.030874938474305</v>
+        <v>1.003093678248212</v>
       </c>
       <c r="F3">
-        <v>1.041017841544534</v>
+        <v>1.006621547129348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034603817565304</v>
+        <v>1.045584295523737</v>
       </c>
       <c r="J3">
-        <v>1.036109651998183</v>
+        <v>1.017260230735533</v>
       </c>
       <c r="K3">
-        <v>1.036496834073602</v>
+        <v>1.015060826463046</v>
       </c>
       <c r="L3">
-        <v>1.033495303450516</v>
+        <v>1.013687127334747</v>
       </c>
       <c r="M3">
-        <v>1.04361122057631</v>
+        <v>1.017170399333393</v>
       </c>
       <c r="N3">
-        <v>1.015952517801043</v>
+        <v>1.009232246352524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032164146635687</v>
+        <v>1.000781682671759</v>
       </c>
       <c r="D4">
-        <v>1.034666373499147</v>
+        <v>1.008169919193964</v>
       </c>
       <c r="E4">
-        <v>1.031592865498182</v>
+        <v>1.006466106249098</v>
       </c>
       <c r="F4">
-        <v>1.041957721137565</v>
+        <v>1.011043569648037</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034802135815353</v>
+        <v>1.046913304666107</v>
       </c>
       <c r="J4">
-        <v>1.036713456052028</v>
+        <v>1.020165414040809</v>
       </c>
       <c r="K4">
-        <v>1.037153715486788</v>
+        <v>1.018170730477584</v>
       </c>
       <c r="L4">
-        <v>1.034088026717336</v>
+        <v>1.01648711250712</v>
       </c>
       <c r="M4">
-        <v>1.044426712150752</v>
+        <v>1.021010510976022</v>
       </c>
       <c r="N4">
-        <v>1.016156833291937</v>
+        <v>1.010231903737908</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03251596858578</v>
+        <v>1.002479346005345</v>
       </c>
       <c r="D5">
-        <v>1.034994867985742</v>
+        <v>1.009695715362735</v>
       </c>
       <c r="E5">
-        <v>1.031894529888683</v>
+        <v>1.007862946376687</v>
       </c>
       <c r="F5">
-        <v>1.042352586218163</v>
+        <v>1.01287363067858</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034884940984408</v>
+        <v>1.047459007838177</v>
       </c>
       <c r="J5">
-        <v>1.036966923284954</v>
+        <v>1.021366225806797</v>
       </c>
       <c r="K5">
-        <v>1.037429544624646</v>
+        <v>1.019456812058326</v>
       </c>
       <c r="L5">
-        <v>1.034336916601135</v>
+        <v>1.017645146560497</v>
       </c>
       <c r="M5">
-        <v>1.044769162787273</v>
+        <v>1.02259835847243</v>
       </c>
       <c r="N5">
-        <v>1.016242558314284</v>
+        <v>1.010644912641043</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032575025629164</v>
+        <v>1.002762832709556</v>
       </c>
       <c r="D6">
-        <v>1.035050012615892</v>
+        <v>1.009950568504016</v>
       </c>
       <c r="E6">
-        <v>1.031945171830716</v>
+        <v>1.00809628477605</v>
       </c>
       <c r="F6">
-        <v>1.042418870693522</v>
+        <v>1.013179251776136</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034898811072642</v>
+        <v>1.047549885275459</v>
       </c>
       <c r="J6">
-        <v>1.037009459820397</v>
+        <v>1.021566671818031</v>
       </c>
       <c r="K6">
-        <v>1.037475838652258</v>
+        <v>1.019671530157371</v>
       </c>
       <c r="L6">
-        <v>1.034378689323229</v>
+        <v>1.017838493102595</v>
       </c>
       <c r="M6">
-        <v>1.044826639489669</v>
+        <v>1.022863447511797</v>
       </c>
       <c r="N6">
-        <v>1.016256942027158</v>
+        <v>1.010713843148924</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032168848733476</v>
+        <v>1.000804472220419</v>
       </c>
       <c r="D7">
-        <v>1.034670763600712</v>
+        <v>1.00819039711288</v>
       </c>
       <c r="E7">
-        <v>1.031596896946696</v>
+        <v>1.006484851754305</v>
       </c>
       <c r="F7">
-        <v>1.041962998360285</v>
+        <v>1.011068134787334</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034803244491821</v>
+        <v>1.046920646842707</v>
       </c>
       <c r="J7">
-        <v>1.036716844351633</v>
+        <v>1.020181538715224</v>
       </c>
       <c r="K7">
-        <v>1.037157402397743</v>
+        <v>1.018187997584973</v>
       </c>
       <c r="L7">
-        <v>1.034091353536144</v>
+        <v>1.016502659977621</v>
       </c>
       <c r="M7">
-        <v>1.044431289488224</v>
+        <v>1.021031830375194</v>
       </c>
       <c r="N7">
-        <v>1.016157979417611</v>
+        <v>1.01023745042557</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030468835277776</v>
+        <v>0.9923835189615496</v>
       </c>
       <c r="D8">
-        <v>1.033083943295358</v>
+        <v>1.000631845229695</v>
       </c>
       <c r="E8">
-        <v>1.030139865929588</v>
+        <v>0.9995688200988921</v>
       </c>
       <c r="F8">
-        <v>1.040055303058524</v>
+        <v>1.001994035896801</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034398969709173</v>
+        <v>1.044178703744802</v>
       </c>
       <c r="J8">
-        <v>1.035490594589919</v>
+        <v>1.014214989957831</v>
       </c>
       <c r="K8">
-        <v>1.035823634478368</v>
+        <v>1.011803264567165</v>
       </c>
       <c r="L8">
-        <v>1.032887860173135</v>
+        <v>1.010754635159409</v>
       </c>
       <c r="M8">
-        <v>1.04277553641307</v>
+        <v>1.013147064279033</v>
       </c>
       <c r="N8">
-        <v>1.015742893337774</v>
+        <v>1.008183792274425</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027464379706436</v>
+        <v>0.9765528245398497</v>
       </c>
       <c r="D9">
-        <v>1.030281420023796</v>
+        <v>0.9864666139712667</v>
       </c>
       <c r="E9">
-        <v>1.027567298998065</v>
+        <v>0.9866240802316254</v>
       </c>
       <c r="F9">
-        <v>1.036684960641742</v>
+        <v>0.9849486328325791</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033668330458403</v>
+        <v>1.038888001853439</v>
       </c>
       <c r="J9">
-        <v>1.033317657304211</v>
+        <v>1.002961627078403</v>
       </c>
       <c r="K9">
-        <v>1.033462766091848</v>
+        <v>0.9997831446465058</v>
       </c>
       <c r="L9">
-        <v>1.030757632966479</v>
+        <v>0.9999379654926984</v>
       </c>
       <c r="M9">
-        <v>1.039845305607587</v>
+        <v>0.9982907213671701</v>
       </c>
       <c r="N9">
-        <v>1.015005973403225</v>
+        <v>1.004305302806116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02545520364613</v>
+        <v>0.9652189004474604</v>
       </c>
       <c r="D10">
-        <v>1.028408585734066</v>
+        <v>0.9763603165638909</v>
       </c>
       <c r="E10">
-        <v>1.025848643487955</v>
+        <v>0.9774014654425465</v>
       </c>
       <c r="F10">
-        <v>1.03443184996885</v>
+        <v>0.9727525914340275</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033168887651878</v>
+        <v>1.035011745659486</v>
       </c>
       <c r="J10">
-        <v>1.031860688537889</v>
+        <v>0.9948838253924877</v>
       </c>
       <c r="K10">
-        <v>1.031881528624856</v>
+        <v>0.9911699259641341</v>
       </c>
       <c r="L10">
-        <v>1.029330908110703</v>
+        <v>0.9921910935422988</v>
       </c>
       <c r="M10">
-        <v>1.037883060730661</v>
+        <v>0.9876318725767983</v>
       </c>
       <c r="N10">
-        <v>1.01451094555118</v>
+        <v>1.001518741227477</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024583673381568</v>
+        <v>0.9600968208070271</v>
       </c>
       <c r="D11">
-        <v>1.027596513906477</v>
+        <v>0.9718027063744951</v>
       </c>
       <c r="E11">
-        <v>1.02510354768312</v>
+        <v>0.9732458857547844</v>
       </c>
       <c r="F11">
-        <v>1.033454677431676</v>
+        <v>0.9672423040118262</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032949676566508</v>
+        <v>1.033240007573004</v>
       </c>
       <c r="J11">
-        <v>1.031227782933217</v>
+        <v>0.9912292834134987</v>
       </c>
       <c r="K11">
-        <v>1.031195052730603</v>
+        <v>0.9872767206991208</v>
       </c>
       <c r="L11">
-        <v>1.028711521884123</v>
+        <v>0.9886906195588964</v>
       </c>
       <c r="M11">
-        <v>1.037031242640589</v>
+        <v>0.9828096018176408</v>
       </c>
       <c r="N11">
-        <v>1.014295690420007</v>
+        <v>1.000257681840425</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024259710776896</v>
+        <v>0.9581591749196522</v>
       </c>
       <c r="D12">
-        <v>1.0272947012557</v>
+        <v>0.9700801728762803</v>
       </c>
       <c r="E12">
-        <v>1.024826645949892</v>
+        <v>0.9716758699731108</v>
       </c>
       <c r="F12">
-        <v>1.033091470866632</v>
+        <v>0.9651579731870242</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032867807140995</v>
+        <v>1.032566868340927</v>
       </c>
       <c r="J12">
-        <v>1.030992385042313</v>
+        <v>0.9898462924963389</v>
       </c>
       <c r="K12">
-        <v>1.030939792147723</v>
+        <v>0.9858039504134383</v>
       </c>
       <c r="L12">
-        <v>1.028481209636478</v>
+        <v>0.9873666059097641</v>
       </c>
       <c r="M12">
-        <v>1.036714510094889</v>
+        <v>0.9809845838226493</v>
       </c>
       <c r="N12">
-        <v>1.014215597925435</v>
+        <v>0.9997804241444456</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024329212690006</v>
+        <v>0.9585764437096123</v>
       </c>
       <c r="D13">
-        <v>1.027359448994467</v>
+        <v>0.9704510442402656</v>
       </c>
       <c r="E13">
-        <v>1.024886048706641</v>
+        <v>0.9720138768549512</v>
       </c>
       <c r="F13">
-        <v>1.033169390929473</v>
+        <v>0.9656068233066968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032885388558835</v>
+        <v>1.032711957175988</v>
       </c>
       <c r="J13">
-        <v>1.031042892713883</v>
+        <v>0.9901441384026862</v>
       </c>
       <c r="K13">
-        <v>1.030994558821765</v>
+        <v>0.986121107200969</v>
       </c>
       <c r="L13">
-        <v>1.028530623521708</v>
+        <v>0.9876517195326446</v>
       </c>
       <c r="M13">
-        <v>1.036782465301462</v>
+        <v>0.9813776338725121</v>
       </c>
       <c r="N13">
-        <v>1.014232784263603</v>
+        <v>0.999883209261363</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024556899407813</v>
+        <v>0.9599373877761911</v>
       </c>
       <c r="D14">
-        <v>1.02757156953377</v>
+        <v>0.9716609404271355</v>
       </c>
       <c r="E14">
-        <v>1.025080661776835</v>
+        <v>0.9731166602832088</v>
       </c>
       <c r="F14">
-        <v>1.033424659622514</v>
+        <v>0.9670707982544505</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032942918294708</v>
+        <v>1.03318467876049</v>
       </c>
       <c r="J14">
-        <v>1.031208331186986</v>
+        <v>0.9911154980488218</v>
       </c>
       <c r="K14">
-        <v>1.031173958400915</v>
+        <v>0.9871555378237803</v>
       </c>
       <c r="L14">
-        <v>1.02869248921251</v>
+        <v>0.9885816727656144</v>
       </c>
       <c r="M14">
-        <v>1.037005068183097</v>
+        <v>0.98265945196642</v>
       </c>
       <c r="N14">
-        <v>1.014289072754416</v>
+        <v>1.000218416100306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024697153077597</v>
+        <v>0.9607711706022813</v>
       </c>
       <c r="D15">
-        <v>1.027702240939819</v>
+        <v>0.9724023950623373</v>
       </c>
       <c r="E15">
-        <v>1.025200550651068</v>
+        <v>0.9737925500857614</v>
       </c>
       <c r="F15">
-        <v>1.033581906930013</v>
+        <v>0.9679677242184036</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032978305292498</v>
+        <v>1.033473912991836</v>
       </c>
       <c r="J15">
-        <v>1.031310222287539</v>
+        <v>0.9917105385461324</v>
       </c>
       <c r="K15">
-        <v>1.031284456124412</v>
+        <v>0.9877892854850676</v>
       </c>
       <c r="L15">
-        <v>1.028792187486487</v>
+        <v>0.989151437442539</v>
       </c>
       <c r="M15">
-        <v>1.037142177341996</v>
+        <v>0.9834446547933651</v>
       </c>
       <c r="N15">
-        <v>1.014323735740431</v>
+        <v>1.000423755009868</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02551301124328</v>
+        <v>0.9655540818780836</v>
       </c>
       <c r="D16">
-        <v>1.028462456246803</v>
+        <v>0.9766587704115658</v>
       </c>
       <c r="E16">
-        <v>1.02589807362034</v>
+        <v>0.9776736688720515</v>
       </c>
       <c r="F16">
-        <v>1.034496668238739</v>
+        <v>0.9731132024995987</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033183373699838</v>
+        <v>1.035127280126011</v>
       </c>
       <c r="J16">
-        <v>1.031902649335702</v>
+        <v>0.9951228985418475</v>
       </c>
       <c r="K16">
-        <v>1.031927049723059</v>
+        <v>0.9914246860324694</v>
       </c>
       <c r="L16">
-        <v>1.029371980622203</v>
+        <v>0.9924201794925561</v>
       </c>
       <c r="M16">
-        <v>1.03793954722586</v>
+        <v>0.9879473261624075</v>
       </c>
       <c r="N16">
-        <v>1.014525212158393</v>
+        <v>1.001601231440394</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026024360315759</v>
+        <v>0.9684949548708038</v>
       </c>
       <c r="D17">
-        <v>1.028939015667445</v>
+        <v>0.9792785026938192</v>
       </c>
       <c r="E17">
-        <v>1.02633536597198</v>
+        <v>0.9800633858905246</v>
       </c>
       <c r="F17">
-        <v>1.035070051274831</v>
+        <v>0.9762773489280936</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033311217020435</v>
+        <v>1.036138733064385</v>
       </c>
       <c r="J17">
-        <v>1.032273717401943</v>
+        <v>0.9972200805949729</v>
       </c>
       <c r="K17">
-        <v>1.032329649761716</v>
+        <v>0.9936598788220816</v>
       </c>
       <c r="L17">
-        <v>1.029735237386167</v>
+        <v>0.9944302454989596</v>
       </c>
       <c r="M17">
-        <v>1.038439135688304</v>
+        <v>0.9907145127153404</v>
       </c>
       <c r="N17">
-        <v>1.014651349893792</v>
+        <v>1.002324807534496</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026322473003008</v>
+        <v>0.9701898392006143</v>
       </c>
       <c r="D18">
-        <v>1.029216876737816</v>
+        <v>0.9807892082573753</v>
       </c>
       <c r="E18">
-        <v>1.026590343982846</v>
+        <v>0.9814417781844015</v>
       </c>
       <c r="F18">
-        <v>1.035404345764915</v>
+        <v>0.9781010451671099</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033385501435467</v>
+        <v>1.036719770027325</v>
       </c>
       <c r="J18">
-        <v>1.032489959664549</v>
+        <v>0.9984283476111484</v>
       </c>
       <c r="K18">
-        <v>1.03256430715154</v>
+        <v>0.9949479943583847</v>
       </c>
       <c r="L18">
-        <v>1.029946964295202</v>
+        <v>0.9955887289759383</v>
       </c>
       <c r="M18">
-        <v>1.038730329844016</v>
+        <v>0.9923088018351297</v>
       </c>
       <c r="N18">
-        <v>1.014724836683386</v>
+        <v>1.002741651331169</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026424096690637</v>
+        <v>0.9707643591038433</v>
       </c>
       <c r="D19">
-        <v>1.029311602000102</v>
+        <v>0.9813014459255633</v>
       </c>
       <c r="E19">
-        <v>1.026677270214442</v>
+        <v>0.9819092066330959</v>
       </c>
       <c r="F19">
-        <v>1.035518306283044</v>
+        <v>0.9787192527843451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03341078230497</v>
+        <v>1.036916403585399</v>
       </c>
       <c r="J19">
-        <v>1.032563659648434</v>
+        <v>0.9988378500942394</v>
       </c>
       <c r="K19">
-        <v>1.032644290135201</v>
+        <v>0.9953846156981327</v>
       </c>
       <c r="L19">
-        <v>1.030019131579274</v>
+        <v>0.9959814275144057</v>
       </c>
       <c r="M19">
-        <v>1.038829584534573</v>
+        <v>0.9928491383545176</v>
       </c>
       <c r="N19">
-        <v>1.014749879022547</v>
+        <v>1.002882920129339</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025969512808981</v>
+        <v>0.9681815646708639</v>
       </c>
       <c r="D20">
-        <v>1.028887896553569</v>
+        <v>0.9789992399507352</v>
       </c>
       <c r="E20">
-        <v>1.026288457691102</v>
+        <v>0.9798086083162032</v>
       </c>
       <c r="F20">
-        <v>1.035008548280702</v>
+        <v>0.9759401521327656</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033297530074238</v>
+        <v>1.036031144027145</v>
       </c>
       <c r="J20">
-        <v>1.032233925556487</v>
+        <v>0.9969966361669048</v>
       </c>
       <c r="K20">
-        <v>1.032286472450143</v>
+        <v>0.9934216951768998</v>
       </c>
       <c r="L20">
-        <v>1.029696279392238</v>
+        <v>0.9942160403897421</v>
       </c>
       <c r="M20">
-        <v>1.038385556064954</v>
+        <v>0.9904196827052157</v>
       </c>
       <c r="N20">
-        <v>1.014637825539053</v>
+        <v>1.002247717672389</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024489857943978</v>
+        <v>0.9595376167448885</v>
       </c>
       <c r="D21">
-        <v>1.027509110133653</v>
+        <v>0.9713054946153501</v>
       </c>
       <c r="E21">
-        <v>1.025023356972683</v>
+        <v>0.9727926662061306</v>
       </c>
       <c r="F21">
-        <v>1.033349496066447</v>
+        <v>0.9666407580216226</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032925989509391</v>
+        <v>1.033045897940459</v>
       </c>
       <c r="J21">
-        <v>1.031159622228863</v>
+        <v>0.9908301786850255</v>
       </c>
       <c r="K21">
-        <v>1.031121137261103</v>
+        <v>0.9868516776970155</v>
       </c>
       <c r="L21">
-        <v>1.028644830582059</v>
+        <v>0.9883084971254674</v>
       </c>
       <c r="M21">
-        <v>1.036939526322788</v>
+        <v>0.9822829454304812</v>
       </c>
       <c r="N21">
-        <v>1.014272500992796</v>
+        <v>1.000119955899876</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023558163570405</v>
+        <v>0.9538981890414823</v>
       </c>
       <c r="D22">
-        <v>1.026641209154701</v>
+        <v>0.9662952892217245</v>
       </c>
       <c r="E22">
-        <v>1.024227126194205</v>
+        <v>0.9682272154456664</v>
       </c>
       <c r="F22">
-        <v>1.032304985371216</v>
+        <v>0.9605746854045849</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032689813688605</v>
+        <v>1.031081357347051</v>
       </c>
       <c r="J22">
-        <v>1.030482377892504</v>
+        <v>0.9868042056248814</v>
       </c>
       <c r="K22">
-        <v>1.030386864027691</v>
+        <v>0.9825653764258743</v>
       </c>
       <c r="L22">
-        <v>1.027982325904728</v>
+        <v>0.9844555138785228</v>
       </c>
       <c r="M22">
-        <v>1.036028441386307</v>
+        <v>0.9769698240184927</v>
       </c>
       <c r="N22">
-        <v>1.014042012805997</v>
+        <v>0.99873058950333</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024052204729324</v>
+        <v>0.956908205029065</v>
       </c>
       <c r="D23">
-        <v>1.027101396462662</v>
+        <v>0.9689685437796279</v>
       </c>
       <c r="E23">
-        <v>1.02464930140389</v>
+        <v>0.9706628343835648</v>
       </c>
       <c r="F23">
-        <v>1.032858835082407</v>
+        <v>0.9638123442968631</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032815259440758</v>
+        <v>1.03213147489539</v>
       </c>
       <c r="J23">
-        <v>1.030841568613719</v>
+        <v>0.9889532857734555</v>
       </c>
       <c r="K23">
-        <v>1.030776267341133</v>
+        <v>0.9848531245484637</v>
       </c>
       <c r="L23">
-        <v>1.028333667667285</v>
+        <v>0.9865118736774596</v>
       </c>
       <c r="M23">
-        <v>1.036511607647778</v>
+        <v>0.9798061064402775</v>
       </c>
       <c r="N23">
-        <v>1.014164274639653</v>
+        <v>0.999472248768307</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025994296495141</v>
+        <v>0.9683232352807331</v>
       </c>
       <c r="D24">
-        <v>1.02891099541413</v>
+        <v>0.9791254801743077</v>
       </c>
       <c r="E24">
-        <v>1.026309653793401</v>
+        <v>0.9799237790468611</v>
       </c>
       <c r="F24">
-        <v>1.035036339299814</v>
+        <v>0.9760925842873543</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033303715494837</v>
+        <v>1.036079786391523</v>
       </c>
       <c r="J24">
-        <v>1.032251906382359</v>
+        <v>0.9970976472440612</v>
       </c>
       <c r="K24">
-        <v>1.032305982951166</v>
+        <v>0.993529368275354</v>
       </c>
       <c r="L24">
-        <v>1.029713883310316</v>
+        <v>0.9943128734438559</v>
       </c>
       <c r="M24">
-        <v>1.038409767030688</v>
+        <v>0.9905529645706738</v>
       </c>
       <c r="N24">
-        <v>1.014643936882239</v>
+        <v>1.002282567301523</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028242176690631</v>
+        <v>0.9807739063080166</v>
       </c>
       <c r="D25">
-        <v>1.031006713764638</v>
+        <v>0.9902380051793898</v>
       </c>
       <c r="E25">
-        <v>1.028232991831201</v>
+        <v>0.9900684565527141</v>
       </c>
       <c r="F25">
-        <v>1.037557345448684</v>
+        <v>0.9894922063888824</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033859389343018</v>
+        <v>1.040314081987655</v>
       </c>
       <c r="J25">
-        <v>1.033880870362205</v>
+        <v>1.005966092851942</v>
       </c>
       <c r="K25">
-        <v>1.034074383574075</v>
+        <v>1.00298977770078</v>
       </c>
       <c r="L25">
-        <v>1.031309493520469</v>
+        <v>1.00282292860305</v>
       </c>
       <c r="M25">
-        <v>1.040604362117562</v>
+        <v>1.002255862274913</v>
       </c>
       <c r="N25">
-        <v>1.015197141035617</v>
+        <v>1.005341299156486</v>
       </c>
     </row>
   </sheetData>
